--- a/Research/资产配置研究/data/基金池.xlsx
+++ b/Research/资产配置研究/data/基金池.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全市场" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
-      <definedName name="f_info_name"/>
+      <definedName name="F_Info_Name"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -474,7 +474,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!f_info_name(A2)</f>
+        <f>[1]!F_Info_Name(A2)</f>
         <v>嘉实新兴产业</v>
       </c>
     </row>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!f_info_name(A3)</f>
+        <f>[1]!F_Info_Name(A3)</f>
         <v>嘉实价值精选</v>
       </c>
     </row>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!f_info_name(A4)</f>
+        <f>[1]!F_Info_Name(A4)</f>
         <v>易方达消费行业</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!f_info_name(A5)</f>
+        <f>[1]!F_Info_Name(A5)</f>
         <v>中欧新趋势A</v>
       </c>
     </row>
@@ -515,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +541,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!f_info_name(A2)</f>
+        <f>[1]!F_Info_Name(A2)</f>
         <v>嘉实基本面50指数(LOF)A</v>
       </c>
       <c r="C2" t="s">
@@ -553,7 +553,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!f_info_name(A3)</f>
+        <f>[1]!F_Info_Name(A3)</f>
         <v>易方达中小盘</v>
       </c>
       <c r="C3" t="s">
@@ -565,7 +565,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!f_info_name(A4)</f>
+        <f>[1]!F_Info_Name(A4)</f>
         <v>嘉实医疗保健</v>
       </c>
       <c r="C4" t="s">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!f_info_name(A5)</f>
+        <f>[1]!F_Info_Name(A5)</f>
         <v>交银阿尔法</v>
       </c>
       <c r="C5" t="s">
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
@@ -617,7 +617,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!f_info_name(A2)</f>
+        <f>[1]!F_Info_Name(A2)</f>
         <v>易方达高等级信用债A</v>
       </c>
     </row>
@@ -626,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!f_info_name(A3)</f>
+        <f>[1]!F_Info_Name(A3)</f>
         <v>兴业添利</v>
       </c>
     </row>
@@ -635,7 +635,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!f_info_name(A4)</f>
+        <f>[1]!F_Info_Name(A4)</f>
         <v>银华信用季季红A</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!f_info_name(A5)</f>
+        <f>[1]!F_Info_Name(A5)</f>
         <v>嘉实纯债A</v>
       </c>
     </row>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="str">
-        <f>[1]!f_info_name(A6)</f>
+        <f>[1]!F_Info_Name(A6)</f>
         <v>嘉实超短债</v>
       </c>
     </row>

--- a/Research/资产配置研究/data/基金池.xlsx
+++ b/Research/资产配置研究/data/基金池.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="全市场" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="autoNoTable" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,15 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
-    <t>005267.OF</t>
-  </si>
-  <si>
-    <t>110022.OF</t>
-  </si>
-  <si>
-    <t>519712.OF</t>
-  </si>
-  <si>
     <t>166001.OF</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>110011.OF</t>
-  </si>
-  <si>
     <t>必选医药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,16 +60,9 @@
     <t>001299.OF</t>
   </si>
   <si>
-    <t>000286.OF</t>
-  </si>
-  <si>
     <t>070037.OF</t>
   </si>
   <si>
-    <t>070009.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000711.OF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,15 +71,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>160716.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金融地产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可选消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000251.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>162605.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110013.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519723.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>206018.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000083.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000595.OF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +180,7 @@
       <sheetName val="Sheet3"/>
     </sheetNames>
     <definedNames>
-      <definedName name="F_Info_Name"/>
+      <definedName name="f_info_name"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -452,7 +457,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,45 +468,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!F_Info_Name(A2)</f>
+        <f>[1]!f_info_name(A2)</f>
         <v>嘉实新兴产业</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!F_Info_Name(A3)</f>
-        <v>嘉实价值精选</v>
+        <f>[1]!f_info_name(A3)</f>
+        <v>嘉实泰和</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!F_Info_Name(A4)</f>
-        <v>易方达消费行业</v>
+        <f>[1]!f_info_name(A4)</f>
+        <v>景顺长城鼎益</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!F_Info_Name(A5)</f>
+        <f>[1]!f_info_name(A5)</f>
         <v>中欧新趋势A</v>
       </c>
     </row>
@@ -516,72 +521,72 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!F_Info_Name(A2)</f>
-        <v>嘉实基本面50指数(LOF)A</v>
+        <f>[1]!f_info_name(A2)</f>
+        <v>工银瑞信金融地产</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!F_Info_Name(A3)</f>
-        <v>易方达中小盘</v>
+        <f>[1]!f_info_name(A3)</f>
+        <v>汇添富消费行业</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!F_Info_Name(A4)</f>
+        <f>[1]!f_info_name(A4)</f>
         <v>嘉实医疗保健</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!F_Info_Name(A5)</f>
-        <v>交银阿尔法</v>
+        <f>[1]!f_info_name(A5)</f>
+        <v>易方达科翔</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -606,55 +611,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="str">
-        <f>[1]!F_Info_Name(A2)</f>
+        <f>[1]!f_info_name(A2)</f>
         <v>易方达高等级信用债A</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="str">
-        <f>[1]!F_Info_Name(A3)</f>
+        <f>[1]!f_info_name(A3)</f>
         <v>兴业添利</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="str">
-        <f>[1]!F_Info_Name(A4)</f>
-        <v>银华信用季季红A</v>
+        <f>[1]!f_info_name(A4)</f>
+        <v>交银双轮动AB</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!F_Info_Name(A5)</f>
+        <f>[1]!f_info_name(A5)</f>
         <v>嘉实纯债A</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" t="str">
-        <f>[1]!F_Info_Name(A6)</f>
-        <v>嘉实超短债</v>
+        <f>[1]!f_info_name(A6)</f>
+        <v>鹏华产业债</v>
       </c>
     </row>
   </sheetData>

--- a/Research/资产配置研究/data/基金池.xlsx
+++ b/Research/资产配置研究/data/基金池.xlsx
@@ -1,142 +1,454 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\Research\资产配置研究\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全市场" sheetId="1" r:id="rId1"/>
     <sheet name="行业" sheetId="2" r:id="rId2"/>
     <sheet name="债券" sheetId="3" r:id="rId3"/>
+    <sheet name="混合" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="152511" calcMode="autoNoTable" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>000751.OF</t>
+  </si>
+  <si>
+    <t>000595.OF</t>
+  </si>
+  <si>
+    <t>162605.OF</t>
+  </si>
   <si>
     <t>166001.OF</t>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000251.OF</t>
+  </si>
+  <si>
+    <t>金融地产</t>
+  </si>
+  <si>
+    <t>110022.OF</t>
+  </si>
+  <si>
+    <t>可选消费</t>
+  </si>
+  <si>
+    <t>110023.OF</t>
   </si>
   <si>
     <t>必选医药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110013.OF</t>
   </si>
   <si>
     <t>信息科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000147.OF</t>
   </si>
   <si>
-    <t>001299.OF</t>
+    <t>519723.OF</t>
   </si>
   <si>
     <t>070037.OF</t>
   </si>
   <si>
-    <t>000711.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000751.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金融地产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可选消费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000251.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>162605.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>110013.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>519723.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>206018.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000083.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000595.OF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>070009.OF</t>
+  </si>
+  <si>
+    <t>519152.OF</t>
+  </si>
+  <si>
+    <t>270002.OF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -144,9 +456,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -155,24 +709,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -234,7 +832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,67 +1041,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
         <v>嘉实新兴产业</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
         <v>嘉实泰和</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
         <v>景顺长城鼎益</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B5" t="str">
         <f>[1]!f_info_name(A5)</f>
@@ -511,159 +1104,195 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
         <v>工银瑞信金融地产</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
-        <v>汇添富消费行业</v>
+        <v>易方达消费行业</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
-        <v>嘉实医疗保健</v>
+        <v>易方达医疗保健</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="str">
         <f>[1]!f_info_name(A5)</f>
         <v>易方达科翔</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
         <v>易方达高等级信用债A</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
-        <v>兴业添利</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>交银双轮动AB</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
-        <v>交银双轮动AB</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>嘉实纯债A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" t="str">
-        <f>[1]!f_info_name(A5)</f>
-        <v>嘉实纯债A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <f>f_info_name(A5)</f>
+        <v>嘉实超短债</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="str">
-        <f>[1]!f_info_name(A6)</f>
-        <v>鹏华产业债</v>
+        <f>f_info_name(A6)</f>
+        <v>新华纯债添利A</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="str">
+        <f>f_info_name(A2)</f>
+        <v>广发稳健增长A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>